--- a/charts_xlsx/mvchart.xlsx
+++ b/charts_xlsx/mvchart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="268">
   <si>
     <t>Sign Degree: [Planet]</t>
   </si>
@@ -370,6 +370,9 @@
     <t xml:space="preserve">116: [VENUS] </t>
   </si>
   <si>
+    <t xml:space="preserve">PEREGRINE: [2] </t>
+  </si>
+  <si>
     <t xml:space="preserve">116: [2 APPLYING OPPOSITION to JUPITER; -2 SEPARATING OPPOSITION to SATURN] </t>
   </si>
   <si>
@@ -418,6 +421,9 @@
     <t xml:space="preserve">146: [URANUS] </t>
   </si>
   <si>
+    <t xml:space="preserve">DETRIMENT: [4] </t>
+  </si>
+  <si>
     <t xml:space="preserve">146: [7 SEPARATING CONJ to SUN; 2 SEPARATING QUINCUNX to JUPITER; -2 APPLYING QUINCUNX to SATURN] </t>
   </si>
   <si>
@@ -442,11 +448,9 @@
     <t xml:space="preserve">153: [9 SEPARATING OPPOSITION to MOON; 1 APPLYING BIQUINTILE to JUPITER; 7 SEPARATING CONJ to URANUS; 5 APPLYING SEXTILE to NEPTUNE; 4 APPLYING CONJ to PLUTO] </t>
   </si>
   <si>
-    <t>153: [STITCH DETERMINER FOR: SEPARATING OPPOSITION (SUN, MOON) [Score:Intensity: OPPOSITION:9 - Exactness:9, Calc Score:0] 
-Circles, Chains, or Honeycomb 
- Aspect K/P:PatternStitchBase.PURL 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 8, 13 
- Orb Width: 10]</t>
+    <t>153: [[&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] in P 
+  for 1 stitches on the WS over 10 stitches 
+  Aspecting Planet Dignity Scores: 8, 11]</t>
   </si>
   <si>
     <t>156</t>
@@ -458,6 +462,9 @@
     <t xml:space="preserve">157: [PLUTO] </t>
   </si>
   <si>
+    <t xml:space="preserve">FALL: [2] </t>
+  </si>
+  <si>
     <t xml:space="preserve">157: [4 APPLYING CONJ to SUN; 5 SEPARATING OPPOSITION to MOON; 6 APPLYING SQUARE to ASC; 7 SEPARATING CONJ to MERCURY; -1 APPLYING SEMISEXTILE to MARS; 1 SEPARATING SEXTILE to NEPTUNE] </t>
   </si>
   <si>
@@ -476,6 +483,9 @@
     <t xml:space="preserve">164: [MERCURY] </t>
   </si>
   <si>
+    <t xml:space="preserve">EXHAULTATION: [6] </t>
+  </si>
+  <si>
     <t xml:space="preserve">164: [-2 APPLYING OPPOSITION to MOON; -1 SEPARATING SQUARE to ASC; -6 SEPARATING SEXTILE to NEPTUNE; 7 SEPARATING CONJ to PLUTO] </t>
   </si>
   <si>
@@ -629,11 +639,9 @@
     <t xml:space="preserve">253: [-1 APPLYING SQUARE to MOON; -1 SEPARATING SQUARE to MERCURY; 6 APPLYING SQUARE to PLUTO] </t>
   </si>
   <si>
-    <t>253: [STITCH DETERMINER FOR: APPLYING SQUARE (ASC, MOON) [Score:Intensity: SQUARE:6 - Exactness:-1, Calc Score:5] 
-Squares, or Diamonds 
- Aspect K/P:PatternStitchBase.KNIT 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 0, 13 
- Orb Width: 8]</t>
+    <t>253: [[&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] in k2tog, p2tog, ssk, skp, spp 
+  for 9 stitches on the RS over 8 stitches 
+  Aspecting Planet Dignity Scores: 0, 11]</t>
   </si>
   <si>
     <t>256</t>
@@ -699,6 +707,9 @@
     <t xml:space="preserve">294: [SATURN] </t>
   </si>
   <si>
+    <t xml:space="preserve">RULERSHIP: [8] </t>
+  </si>
+  <si>
     <t xml:space="preserve">294: [-2 SEPARATING OPPOSITION to VENUS; 4 SEPARATING CONJ to JUPITER; -2 APPLYING QUINCUNX to URANUS] </t>
   </si>
   <si>
@@ -783,21 +794,14 @@
     <t xml:space="preserve">342: [MOON] </t>
   </si>
   <si>
-    <t xml:space="preserve">PEREGRINE: [3] </t>
-  </si>
-  <si>
     <t xml:space="preserve">342: [9 SEPARATING OPPOSITION to SUN; -1 APPLYING SQUARE to ASC; -2 APPLYING OPPOSITION to MERCURY; -1 APPLYING SEMISQUARE to JUPITER; 4 SEPARATING TRINE to NEPTUNE; 5 SEPARATING OPPOSITION to PLUTO] </t>
   </si>
   <si>
-    <t>342: [STITCH DETERMINER FOR: SEPARATING OPPOSITION (MOON, SUN) [Score:Intensity: OPPOSITION:9 - Exactness:9, Calc Score:0] 
-Circles, Chains, or Honeycomb 
- Aspect K/P:PatternStitchBase.PURL 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 13, 8 
- Orb Width: 10; STITCH DETERMINER FOR: APPLYING SQUARE (MOON, ASC) [Score:Intensity: SQUARE:6 - Exactness:-1, Calc Score:5] 
-Squares, or Diamonds 
- Aspect K/P:PatternStitchBase.KNIT 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 13, 0 
- Orb Width: 8]</t>
+    <t>342: [[&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] in P 
+  for 1 stitches on the WS over 10 stitches 
+  Aspecting Planet Dignity Scores: 11, 8; [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] in k2tog, p2tog, ssk, skp, spp 
+  for 9 stitches on the RS over 8 stitches 
+  Aspecting Planet Dignity Scores: 11, 0]</t>
   </si>
   <si>
     <t>344</t>
@@ -2020,8 +2024,11 @@
       <c r="B31" t="s">
         <v>117</v>
       </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
         <v>116</v>
@@ -2039,10 +2046,10 @@
     </row>
     <row r="32" spans="2:17">
       <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
         <v>120</v>
-      </c>
-      <c r="F32" t="s">
-        <v>119</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>32</v>
@@ -2060,10 +2067,10 @@
     </row>
     <row r="33" spans="2:17">
       <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" t="s">
         <v>122</v>
-      </c>
-      <c r="F33" t="s">
-        <v>121</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>32</v>
@@ -2093,10 +2100,10 @@
     </row>
     <row r="34" spans="2:17">
       <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
         <v>124</v>
-      </c>
-      <c r="F34" t="s">
-        <v>123</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>49</v>
@@ -2120,10 +2127,10 @@
     </row>
     <row r="35" spans="2:17">
       <c r="E35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" t="s">
         <v>126</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>49</v>
@@ -2147,10 +2154,10 @@
     </row>
     <row r="36" spans="2:17">
       <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
         <v>128</v>
-      </c>
-      <c r="F36" t="s">
-        <v>127</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>57</v>
@@ -2168,10 +2175,10 @@
     </row>
     <row r="37" spans="2:17">
       <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
         <v>130</v>
-      </c>
-      <c r="F37" t="s">
-        <v>129</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>31</v>
@@ -2195,16 +2202,19 @@
     </row>
     <row r="38" spans="2:17">
       <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" t="s">
         <v>133</v>
       </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>132</v>
-      </c>
-      <c r="F38" t="s">
-        <v>131</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>31</v>
@@ -2222,10 +2232,10 @@
     </row>
     <row r="39" spans="2:17">
       <c r="E39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>31</v>
@@ -2243,19 +2253,19 @@
     </row>
     <row r="40" spans="2:17">
       <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" t="s">
         <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" t="s">
-        <v>137</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>31</v>
@@ -2280,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>39</v>
@@ -2288,16 +2298,19 @@
     </row>
     <row r="41" spans="2:17">
       <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" t="s">
         <v>145</v>
-      </c>
-      <c r="D41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" t="s">
-        <v>143</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>31</v>
@@ -2327,10 +2340,10 @@
     </row>
     <row r="42" spans="2:17">
       <c r="E42" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>31</v>
@@ -2360,16 +2373,19 @@
     </row>
     <row r="43" spans="2:17">
       <c r="B43" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
       </c>
       <c r="D43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" t="s">
         <v>152</v>
-      </c>
-      <c r="E43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" t="s">
-        <v>149</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>50</v>
@@ -2393,10 +2409,10 @@
     </row>
     <row r="44" spans="2:17">
       <c r="E44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>50</v>
@@ -2420,10 +2436,10 @@
     </row>
     <row r="45" spans="2:17">
       <c r="E45" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M45">
         <f>SUM(J44:L44)</f>
@@ -2435,10 +2451,10 @@
     </row>
     <row r="46" spans="2:17">
       <c r="E46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M46">
         <f>SUM(J45:L45)</f>
@@ -2450,10 +2466,10 @@
     </row>
     <row r="47" spans="2:17">
       <c r="E47" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F47" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>32</v>
@@ -2471,16 +2487,19 @@
     </row>
     <row r="48" spans="2:17">
       <c r="B48" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>32</v>
@@ -2504,10 +2523,10 @@
     </row>
     <row r="49" spans="2:17">
       <c r="E49" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>49</v>
@@ -2531,10 +2550,10 @@
     </row>
     <row r="50" spans="2:17">
       <c r="E50" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>49</v>
@@ -2558,10 +2577,10 @@
     </row>
     <row r="51" spans="2:17">
       <c r="E51" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F51" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -2585,10 +2604,10 @@
     </row>
     <row r="52" spans="2:17">
       <c r="E52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M52">
         <f>SUM(J51:L51)</f>
@@ -2600,10 +2619,10 @@
     </row>
     <row r="53" spans="2:17">
       <c r="E53" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
@@ -2621,10 +2640,10 @@
     </row>
     <row r="54" spans="2:17">
       <c r="E54" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -2642,10 +2661,10 @@
     </row>
     <row r="55" spans="2:17">
       <c r="E55" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -2669,16 +2688,19 @@
     </row>
     <row r="56" spans="2:17">
       <c r="B56" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -2702,10 +2724,10 @@
     </row>
     <row r="57" spans="2:17">
       <c r="E57" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F57" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>47</v>
@@ -2729,10 +2751,10 @@
     </row>
     <row r="58" spans="2:17">
       <c r="E58" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -2762,10 +2784,10 @@
     </row>
     <row r="59" spans="2:17">
       <c r="E59" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>47</v>
@@ -2783,10 +2805,10 @@
     </row>
     <row r="60" spans="2:17">
       <c r="E60" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>36</v>
@@ -2804,10 +2826,10 @@
     </row>
     <row r="61" spans="2:17">
       <c r="E61" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>36</v>
@@ -2825,10 +2847,10 @@
     </row>
     <row r="62" spans="2:17">
       <c r="E62" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F62" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>36</v>
@@ -2852,10 +2874,10 @@
     </row>
     <row r="63" spans="2:17">
       <c r="E63" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F63" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>36</v>
@@ -2885,10 +2907,10 @@
     </row>
     <row r="64" spans="2:17">
       <c r="E64" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F64" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>36</v>
@@ -2918,16 +2940,16 @@
     </row>
     <row r="65" spans="2:17">
       <c r="B65" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E65" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>46</v>
@@ -2946,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>64</v>
@@ -2954,10 +2976,10 @@
     </row>
     <row r="66" spans="2:17">
       <c r="E66" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>46</v>
@@ -2981,10 +3003,10 @@
     </row>
     <row r="67" spans="2:17">
       <c r="E67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>51</v>
@@ -3002,10 +3024,10 @@
     </row>
     <row r="68" spans="2:17">
       <c r="E68" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>37</v>
@@ -3023,10 +3045,10 @@
     </row>
     <row r="69" spans="2:17">
       <c r="E69" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F69" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>37</v>
@@ -3044,10 +3066,10 @@
     </row>
     <row r="70" spans="2:17">
       <c r="E70" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F70" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>37</v>
@@ -3065,10 +3087,10 @@
     </row>
     <row r="71" spans="2:17">
       <c r="E71" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F71" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>37</v>
@@ -3092,10 +3114,10 @@
     </row>
     <row r="72" spans="2:17">
       <c r="E72" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F72" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>37</v>
@@ -3125,10 +3147,10 @@
     </row>
     <row r="73" spans="2:17">
       <c r="E73" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F73" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>43</v>
@@ -3152,10 +3174,10 @@
     </row>
     <row r="74" spans="2:17">
       <c r="E74" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F74" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M74">
         <f>SUM(J73:L73)</f>
@@ -3167,16 +3189,19 @@
     </row>
     <row r="75" spans="2:17">
       <c r="B75" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+      <c r="C75" t="s">
+        <v>229</v>
       </c>
       <c r="D75" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F75" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M75">
         <f>SUM(J74:L74)</f>
@@ -3188,16 +3213,19 @@
     </row>
     <row r="76" spans="2:17">
       <c r="B76" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="C76" t="s">
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E76" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>38</v>
@@ -3221,10 +3249,10 @@
     </row>
     <row r="77" spans="2:17">
       <c r="E77" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F77" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>39</v>
@@ -3242,10 +3270,10 @@
     </row>
     <row r="78" spans="2:17">
       <c r="E78" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F78" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>39</v>
@@ -3269,10 +3297,10 @@
     </row>
     <row r="79" spans="2:17">
       <c r="E79" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>42</v>
@@ -3296,10 +3324,10 @@
     </row>
     <row r="80" spans="2:17">
       <c r="E80" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F80" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>42</v>
@@ -3323,10 +3351,10 @@
     </row>
     <row r="81" spans="2:17">
       <c r="E81" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F81" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>53</v>
@@ -3344,10 +3372,10 @@
     </row>
     <row r="82" spans="2:17">
       <c r="E82" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F82" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>40</v>
@@ -3365,10 +3393,10 @@
     </row>
     <row r="83" spans="2:17">
       <c r="E83" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F83" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>40</v>
@@ -3392,10 +3420,10 @@
     </row>
     <row r="84" spans="2:17">
       <c r="E84" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F84" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>40</v>
@@ -3413,10 +3441,10 @@
     </row>
     <row r="85" spans="2:17">
       <c r="E85" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F85" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>40</v>
@@ -3446,10 +3474,10 @@
     </row>
     <row r="86" spans="2:17">
       <c r="E86" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F86" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>40</v>
@@ -3479,19 +3507,19 @@
     </row>
     <row r="87" spans="2:17">
       <c r="B87" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="D87" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F87" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>40</v>
@@ -3516,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>86</v>
@@ -3524,10 +3552,10 @@
     </row>
     <row r="88" spans="2:17">
       <c r="E88" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F88" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>41</v>
@@ -3551,10 +3579,10 @@
     </row>
     <row r="89" spans="2:17">
       <c r="E89" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>41</v>
@@ -3578,10 +3606,10 @@
     </row>
     <row r="90" spans="2:17">
       <c r="E90" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F90" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M90">
         <f>SUM(J89:L89)</f>
@@ -3593,10 +3621,10 @@
     </row>
     <row r="91" spans="2:17">
       <c r="E91" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F91" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M91">
         <f>SUM(J90:L90)</f>
